--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_03_end.xlsx
@@ -548,19 +548,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  This weirdo’s way too strong! She’s beaten back so many of us already!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  I still don’t get what she’s saying, but she’s no joke!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria C"]  I reckon she’d make a fine Great Chief!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...Gavial, your friend’s really strong.
+    <t xml:space="preserve">[name="Archosauria A"]  This weirdo's way too strong! She's beaten back so many of us already!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  I still don't get what she's saying, but she's no joke!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria C"]  I reckon she'd make a fine Great Chief!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  ...Gavial, your friend's really strong.
 </t>
   </si>
   <si>
@@ -568,11 +568,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I think we finally hit a lull. I’m gonna go up there and restrain her...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  You, Reunion! You’re back!
+    <t xml:space="preserve">[name="Gavial"]  I think we finally hit a lull. I'm gonna go up there and restrain her...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  You, Reunion! You're back!
 </t>
   </si>
   <si>
@@ -580,15 +580,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  You won’t get away!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, you dumb... She’s gonna escape again!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m going after her! Tomimi, you and the Doctor stay put! I’ll come back and find you!
+    <t xml:space="preserve">[name="Ceobe"]  You won't get away!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh, you dumb... She's gonna escape again!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I'm going after her! Tomimi, you and the Doctor stay put! I'll come back and find you!
 </t>
   </si>
   <si>
@@ -600,7 +600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Oh, there’s another fight starting.
+    <t xml:space="preserve">[name="Tomimi"]  Oh, there's another fight starting.
 </t>
   </si>
   <si>
@@ -608,7 +608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="(Tell her about Gavial’s life at Rhodes Island.);......;(Tell her about Gavial as a doctor.)",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="(Tell her about Gavial's life at Rhodes Island.);......;(Tell her about Gavial as a doctor.)",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -616,23 +616,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Maybe you don’t know Gavial that well?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  That’s great! ...Um, no, I was just thinking since Gavial came back with you, and she seemed to really like you, and it looks like you get along really well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  But that’s okay! Gavial’s a really nice person! I think you can definitely get along with her!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  That’s great! Even if she’s a doctor, Gavial’s still Gavial!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  That’s good to know. Gavial hasn’t changed. What a relief...
+    <t xml:space="preserve">[name="Tomimi"]  Maybe you don't know Gavial that well?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  That's great! ...Um, no, I was just thinking since Gavial came back with you, and she seemed to really like you, and it looks like you get along really well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  But that's okay! Gavial's a really nice person! I think you can definitely get along with her!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  That's great! Even if she's a doctor, Gavial's still Gavial!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  That's good to know. Gavial hasn't changed. What a relief...
 </t>
   </si>
   <si>
@@ -640,7 +640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="It’d be sad, for sure.;......;I’d be glad she found a new path in life.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="It'd be sad, for sure.;......;I'd be glad she found a new path in life.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -648,11 +648,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  How... How could you be like that?! Gavial’s such a good person! How could you care so little if she left?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  You’re incredible... I couldn’t do that.
+    <t xml:space="preserve">[name="Tomimi"]  How... How could you be like that?! Gavial's such a good person! How could you care so little if she left?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  You're incredible... I couldn't do that.
 </t>
   </si>
   <si>
@@ -660,11 +660,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Doctor, um, about Gavial...! I-I’m not gonna let you take her from me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Good luck.;(Nod.);And I won’t let you take her from me!",values="1;2;3")]
+    <t xml:space="preserve">[name="Tomimi"]  Doctor, um, about Gavial...! I-I'm not gonna let you take her from me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Good luck.;(Nod.);And I won't let you take her from me!",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, what? You call me a kid, and this is all you’ve got?
+    <t xml:space="preserve">[name="Gavial"]  Oh, what? You call me a kid, and this is all you've got?
 </t>
   </si>
   <si>
@@ -692,11 +692,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria C"]  It’s wild to say, but could she be the next Great Chief?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I’ll take you on!
+    <t xml:space="preserve">[name="Archosauria C"]  It's wild to say, but could she be the next Great Chief?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I'll take you on!
 </t>
   </si>
   <si>
@@ -704,7 +704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Weren’t you busy building your machines? Every time I went looking for you, you ignored me.
+    <t xml:space="preserve">[name="Gavial"]  Weren't you busy building your machines? Every time I went looking for you, you ignored me.
 </t>
   </si>
   <si>
@@ -724,11 +724,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zumama"]  Enough talk. I’m not losing to you today, Gavial.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, you won’t know until you’ve tried!
+    <t xml:space="preserve">[name="Zumama"]  Enough talk. I'm not losing to you today, Gavial.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hey, you won't know until you've tried!
 </t>
   </si>
   <si>
@@ -736,11 +736,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  They went until they’d used all their strength, and afterwards, both of them got dragged off by the others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  That’s the story of the first time Gavial joined the ceremony.
+    <t xml:space="preserve">[name="Tomimi"]  They went until they'd used all their strength, and afterwards, both of them got dragged off by the others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  That's the story of the first time Gavial joined the ceremony.
 </t>
   </si>
   <si>
@@ -752,7 +752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Back when they were young, she and Gavial fought a lot. Gavial was stronger than her, but it wasn’t like Zumama never won.
+    <t xml:space="preserve">[name="Tomimi"]  Back when they were young, she and Gavial fought a lot. Gavial was stronger than her, but it wasn't like Zumama never won.
 </t>
   </si>
   <si>
@@ -772,19 +772,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Gavial! You’re okay, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m fine. Tch. Kay’s got a hell of a pair of legs. Just ran off and disappeared out of sight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  But knowing how well she can fend for herself, I’m not worried. Tomimi, did Zumama get here yet?
+    <t xml:space="preserve">[name="Gavial"]  I'm back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Gavial! You're okay, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I'm fine. Tch. Kay's got a hell of a pair of legs. Just ran off and disappeared out of sight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  But knowing how well she can fend for herself, I'm not worried. Tomimi, did Zumama get here yet?
 </t>
   </si>
   <si>
